--- a/成績.xlsx
+++ b/成績.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Deep_Learning_Anomaly_Detection\Validation of Deep learning in Smart Grid\Deep-SVDD-PyTorch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9355D4F8-2CC6-421F-B12A-2848587F3236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FC7D1E-5D95-4AA9-BDE7-4B54EE010ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="45" windowWidth="13965" windowHeight="12525" xr2:uid="{EB9868D1-5612-4D53-9EDE-D5AE833576E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EB9868D1-5612-4D53-9EDE-D5AE833576E9}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B2:B16"/>
+      <selection sqref="A1:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
